--- a/data/trans_camb/P2A_enfcro_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.819747753371631</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-14.67745138066205</v>
+        <v>-14.67745138066207</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.161652555497076</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1653485908561288</v>
+        <v>-0.3535820650726775</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.213970757694846</v>
+        <v>-4.824517634862246</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-17.85005546327673</v>
+        <v>-17.27927280961343</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.177357508036641</v>
+        <v>-4.901099254792054</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.01387198828393</v>
+        <v>-6.354760245325044</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-21.25382361333791</v>
+        <v>-21.43846288590572</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2566050313972831</v>
+        <v>0.03372633236837073</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.995694063794661</v>
+        <v>-3.036685322645187</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-17.33256876599415</v>
+        <v>-17.55091072462942</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.49535351547125</v>
+        <v>14.23117677772905</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.272964409260112</v>
+        <v>8.441926442908054</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.068959491839421</v>
+        <v>-5.465022968666644</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.395232152295</v>
+        <v>10.77855453238327</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.272095536299245</v>
+        <v>10.01427065248337</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-8.239186278908678</v>
+        <v>-7.518149373599586</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.09910738302441</v>
+        <v>10.28800035120889</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.630776668521697</v>
+        <v>7.262535596231742</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-7.931061795463616</v>
+        <v>-7.731438731902228</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.03742833082892933</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3018838764785415</v>
+        <v>-0.3018838764785418</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1142659022182596</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.003444617854121213</v>
+        <v>-0.0079398346319047</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1112820553908585</v>
+        <v>-0.1066003343148261</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3838078483489121</v>
+        <v>-0.3751609408275752</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.117898552555126</v>
+        <v>-0.09591881778448509</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1150520330727949</v>
+        <v>-0.118345250683922</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.404229693087484</v>
+        <v>-0.4063473777706241</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.005200479408324691</v>
+        <v>-0.0007642242869043585</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06341746198453262</v>
+        <v>-0.06373126938008387</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3607474892099252</v>
+        <v>-0.3599343377325819</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3342628100763275</v>
+        <v>0.3588630075407558</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2058581517349341</v>
+        <v>0.2153810727691559</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1265963494440784</v>
+        <v>-0.138200497900387</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2299029996042389</v>
+        <v>0.2410882051349872</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2064511613382145</v>
+        <v>0.2310136852672266</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.188745662280724</v>
+        <v>-0.1759549136876263</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2606106489140368</v>
+        <v>0.2434754176090127</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1802949582395359</v>
+        <v>0.1686559146539354</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1871739251656291</v>
+        <v>-0.1807717318524928</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.126266317280449</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-17.68405051245156</v>
+        <v>-17.68405051245154</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4098540129206947</v>
+        <v>-0.3070640697108576</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.332031132618286</v>
+        <v>-4.786667952812562</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-19.72785420624593</v>
+        <v>-19.53666229026423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.471179165298784</v>
+        <v>0.5611050425024865</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.63916515378208</v>
+        <v>-10.23059404091324</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-29.09424584325258</v>
+        <v>-29.44420968457164</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.133077101468493</v>
+        <v>2.756380705414209</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.076241814312326</v>
+        <v>-4.616615939451765</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-22.479746022014</v>
+        <v>-22.12068565448793</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.24825883990945</v>
+        <v>14.9028611540451</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.74966446081363</v>
+        <v>10.41406323804863</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-5.491547174148412</v>
+        <v>-6.182848718882364</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.98156433008474</v>
+        <v>15.78736936900281</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.654930302572892</v>
+        <v>4.143142166712751</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-16.13693967799647</v>
+        <v>-16.04518703798215</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.14234568516423</v>
+        <v>12.82879006496185</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.404463802599951</v>
+        <v>6.510283781064079</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-12.98881743072841</v>
+        <v>-12.8013290585441</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.002615061364606793</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3662487214397243</v>
+        <v>-0.3662487214397241</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.008619940262224931</v>
+        <v>-0.007896166784231259</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.08841760126456227</v>
+        <v>-0.0988323786380724</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4092279338885528</v>
+        <v>-0.4178411126224543</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02712860103200246</v>
+        <v>0.01367235542570203</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.19186864927033</v>
+        <v>-0.1833705885938168</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5150834179384237</v>
+        <v>-0.5228216787512976</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04528045683256888</v>
+        <v>0.05355943662754178</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09946266347282083</v>
+        <v>-0.09315514015389953</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4416396304064875</v>
+        <v>-0.439846317646022</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3722276493169602</v>
+        <v>0.3658988887400533</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2714361365893831</v>
+        <v>0.253928508435163</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1359140353098498</v>
+        <v>-0.1515859120650775</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.330893472378492</v>
+        <v>0.3283097351945326</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09450630037420359</v>
+        <v>0.08291591417119115</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3330924977148655</v>
+        <v>-0.3314479318705353</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2873451706124197</v>
+        <v>0.2808706613462421</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1180914330752357</v>
+        <v>0.1449715677407397</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2841009028861771</v>
+        <v>-0.2881234597050732</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.613855570749091</v>
+        <v>6.283773587187692</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.600856638305462</v>
+        <v>3.442329486856553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-20.47065131987747</v>
+        <v>-20.48315692138214</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.013802982348153</v>
+        <v>4.188217355793599</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.05690340026012315</v>
+        <v>0.1698794546543549</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-22.20208971779331</v>
+        <v>-21.4052358628796</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.31828333393646</v>
+        <v>7.722617731422825</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.812961901616258</v>
+        <v>5.191966200783293</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-18.24679670293762</v>
+        <v>-18.29134784759722</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.01670268105165</v>
+        <v>17.96515534913877</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.67372058868813</v>
+        <v>15.6667081754737</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-8.947007991096346</v>
+        <v>-8.541596661899764</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23.84959986752433</v>
+        <v>22.68600864110752</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>20.27145555013936</v>
+        <v>20.81440161018923</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-2.187773140097685</v>
+        <v>-1.934330816617759</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.46106350102168</v>
+        <v>18.60631848164895</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>16.00075841887319</v>
+        <v>15.41828889247087</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-8.642593900219429</v>
+        <v>-8.210563062943912</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1220584483893569</v>
+        <v>0.1311251512707684</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.07072183061126315</v>
+        <v>0.07325623019029084</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4298667345004765</v>
+        <v>-0.4301395705320173</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.06567642133472168</v>
+        <v>0.06617577185250746</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.005608684084000271</v>
+        <v>0.001966623491379806</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3593786813208774</v>
+        <v>-0.3472162503746051</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1606329978129343</v>
+        <v>0.1528301177655985</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.09477941543532152</v>
+        <v>0.1027919748941247</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3579235016689114</v>
+        <v>-0.361234356812427</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.428162994577911</v>
+        <v>0.4242518782777495</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.386961017040197</v>
+        <v>0.3714548165211994</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2094744992149376</v>
+        <v>-0.203207596841767</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4807651905950123</v>
+        <v>0.4537718052693414</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3985430140834627</v>
+        <v>0.4076358789355926</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.04963826806278583</v>
+        <v>-0.03973814777538687</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4092248910684609</v>
+        <v>0.4125477943612491</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3559906323956293</v>
+        <v>0.3437034804712098</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1843554773698297</v>
+        <v>-0.178364672710055</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.6488217922891337</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-16.46984071996763</v>
+        <v>-16.46984071996762</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.551751985577698</v>
+        <v>4.265655357187955</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5255547115671027</v>
+        <v>0.1076882674035476</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-16.62098390726451</v>
+        <v>-17.01607317455399</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.423699578055821</v>
+        <v>-1.984536968784949</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.27807027325437</v>
+        <v>-10.9411990396947</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-27.54146732459676</v>
+        <v>-27.66548404165597</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.015564668757007</v>
+        <v>3.939792128772336</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.709019648350357</v>
+        <v>-2.610695434434054</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-19.45512232595187</v>
+        <v>-19.68588743763189</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.6119905636986</v>
+        <v>12.53085512774151</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.487923146816971</v>
+        <v>8.78336703096468</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-8.496566516415824</v>
+        <v>-8.545154699990242</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.815107489619511</v>
+        <v>8.28525116103885</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.362492020987758</v>
+        <v>-0.8581895114635012</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-18.69334144189938</v>
+        <v>-18.23060905319328</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.50244563818261</v>
+        <v>10.17050115205238</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.763471666471225</v>
+        <v>4.062450659283779</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-13.19817036566834</v>
+        <v>-13.50292913532513</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.01235238192147277</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3135556869030142</v>
+        <v>-0.3135556869030141</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.09072660240554327</v>
+        <v>0.08281611134816177</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01043255350412614</v>
+        <v>0.001270545816709105</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3356909936836969</v>
+        <v>-0.3375324166624902</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03933495075108807</v>
+        <v>-0.03015387441377782</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1811315323038433</v>
+        <v>-0.1765555868362789</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4459155101944265</v>
+        <v>-0.4430218337435901</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07506796526470767</v>
+        <v>0.0726834109154241</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05017996273697262</v>
+        <v>-0.04829269914116799</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3622469809493222</v>
+        <v>-0.3625510990452036</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2703031916433987</v>
+        <v>0.2680707375957143</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1834433633931248</v>
+        <v>0.1891991869595931</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1808412559758893</v>
+        <v>-0.1836155231460008</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1543995236626839</v>
+        <v>0.1473249495697708</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.02147556976337254</v>
+        <v>-0.01617846984054713</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3279126869198983</v>
+        <v>-0.3231226252927313</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2078455174228167</v>
+        <v>0.1991445435623163</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.07323659125503849</v>
+        <v>0.07953187846009846</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2600936516966621</v>
+        <v>-0.2642353367939427</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>9.192257249090495</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-14.00481893662984</v>
+        <v>-14.00481893662985</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>10.51470474175994</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.407850746809665</v>
+        <v>0.8496680863783906</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.394140797582833</v>
+        <v>-1.904923319440777</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-20.9637029075039</v>
+        <v>-20.87841703008664</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.380663735532939</v>
+        <v>6.917673299037809</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.067060293929974</v>
+        <v>4.008467829033438</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-19.23571849350683</v>
+        <v>-19.1846494081525</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.287898084756568</v>
+        <v>6.032746622907265</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.93423432359805</v>
+        <v>1.944678609443184</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-18.14759487815585</v>
+        <v>-18.3880114449019</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.27495619682216</v>
+        <v>15.0821912609246</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.00279788226049</v>
+        <v>11.77670574882274</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-7.659485429544365</v>
+        <v>-7.231141254512286</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.9472589142191</v>
+        <v>17.81225244475909</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.48845866942012</v>
+        <v>14.32526011326799</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-9.366953166762324</v>
+        <v>-8.578301416977009</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>14.83830639042735</v>
+        <v>14.94941316983575</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.62448010503288</v>
+        <v>10.49088333499829</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-10.19425113086376</v>
+        <v>-10.06074666805552</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1510740324398115</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2301681092046725</v>
+        <v>-0.2301681092046726</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1873059893054549</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.0267712048387656</v>
+        <v>0.01556018865487158</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.04454011908234031</v>
+        <v>-0.03511506919008874</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3949962626270904</v>
+        <v>-0.4009909753274579</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1138108829734299</v>
+        <v>0.1089430751558083</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.06232928080503736</v>
+        <v>0.05890252316793595</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.299024001708468</v>
+        <v>-0.2983350926872282</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1079020621613071</v>
+        <v>0.1015316702218267</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.03298924768359252</v>
+        <v>0.0333138609164601</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3103173920518307</v>
+        <v>-0.3138390821303793</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3468536133056856</v>
+        <v>0.3383844520026393</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2445732292482923</v>
+        <v>0.2716029069298079</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1718279930170376</v>
+        <v>-0.1583088574509932</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3112317463189169</v>
+        <v>0.3099240109408248</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2484923487816866</v>
+        <v>0.2451102483318977</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1610280526549245</v>
+        <v>-0.1494576709374007</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2785742928463708</v>
+        <v>0.2826949661549139</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2009983436899357</v>
+        <v>0.1951391060362017</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1914981505372615</v>
+        <v>-0.1863654372452858</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>1.069156316686715</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-22.58595664607248</v>
+        <v>-22.58595664607247</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>7.368811820631905</v>
@@ -1734,7 +1734,7 @@
         <v>1.86513533224979</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-19.1279354922267</v>
+        <v>-19.12793549222669</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>6.169460944072262</v>
+        <v>5.679835960176813</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.499733829661098</v>
+        <v>0.8902294575377367</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-10.57308833387436</v>
+        <v>-10.69396209316735</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.411319661787311</v>
+        <v>2.168422143173586</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.752172301641752</v>
+        <v>-2.576283359596182</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-26.94845677797512</v>
+        <v>-26.66498993808197</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.87401641570755</v>
+        <v>4.136180935151302</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.576183880956587</v>
+        <v>-1.972532765289386</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-23.07351603892628</v>
+        <v>-23.15275415611019</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>21.55284459565865</v>
+        <v>21.19359820441832</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>15.57470176381948</v>
+        <v>15.26108795344705</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.623945190864369</v>
+        <v>8.397886220720668</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.03386895369343</v>
+        <v>9.760197979431849</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.264477356610016</v>
+        <v>5.136757333096306</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-18.6210734776121</v>
+        <v>-18.34893316450676</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.62900216408741</v>
+        <v>11.12136790329402</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.560368373033657</v>
+        <v>5.490313239828529</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-15.18887125837453</v>
+        <v>-15.2227189595351</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.01604980625804955</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.3390525993856052</v>
+        <v>-0.3390525993856051</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1263481496059464</v>
@@ -1839,7 +1839,7 @@
         <v>0.03198024372594502</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.327974076968287</v>
+        <v>-0.3279740769682869</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.234187577968461</v>
+        <v>0.2075245351779474</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.04685972569465167</v>
+        <v>0.0346753062643728</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4197114730968874</v>
+        <v>-0.4035882188024234</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.03477422736653675</v>
+        <v>0.03300770968161158</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.04012933076840332</v>
+        <v>-0.03787969383578293</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3939477972636666</v>
+        <v>-0.3887707673380549</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0646832564470315</v>
+        <v>0.06934235371167746</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.02631146133680876</v>
+        <v>-0.03271472530178415</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3852511429542559</v>
+        <v>-0.3923378659968665</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.080174353452658</v>
+        <v>1.06376423267739</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7638803565615883</v>
+        <v>0.7659811297890778</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.4080483686693548</v>
+        <v>0.4085501507811729</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1544448036395879</v>
+        <v>0.1512483631395909</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.08063346272355684</v>
+        <v>0.07967670020225102</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2847917467462655</v>
+        <v>-0.2786318373736503</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1873885680916949</v>
+        <v>0.19648162138181</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.09860120733859652</v>
+        <v>0.09810771781824197</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.2650984862307494</v>
+        <v>-0.2672778478096309</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>0.7800963363222557</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-20.57699637482503</v>
+        <v>-20.57699637482502</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>8.308300092427977</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>7.01180113165865</v>
+        <v>7.045506216670747</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.901634152294089</v>
+        <v>2.869266402473459</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-14.32586222792563</v>
+        <v>-14.19801586917391</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4.587499606542885</v>
+        <v>4.840066460598572</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.81498873941391</v>
+        <v>-1.403871097711763</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-22.93558544351918</v>
+        <v>-22.62249512696784</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>6.590948585946227</v>
+        <v>6.598818960348773</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.317996128430109</v>
+        <v>1.428397603512477</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-17.78067353415828</v>
+        <v>-17.82047843474376</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.95374129675496</v>
+        <v>12.06422746993557</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.824886759588711</v>
+        <v>7.913174155553433</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-9.433293156315983</v>
+        <v>-9.355447132400375</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9.432386378083566</v>
+        <v>9.592262862423722</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.174408898035733</v>
+        <v>3.12706851702988</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-18.53104868309924</v>
+        <v>-18.27626199143742</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>10.09344429656911</v>
+        <v>10.01976373490641</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.805886495887349</v>
+        <v>4.904355549743457</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-14.45494555173378</v>
+        <v>-14.51503413590549</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.152761793147692</v>
+        <v>0.1532792990374661</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.06285433725530275</v>
+        <v>0.06267669577194693</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3135532033545207</v>
+        <v>-0.3138655891789871</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.07427785811637462</v>
+        <v>0.07821763926975256</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.0293660609090459</v>
+        <v>-0.02260415477630582</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3703140991924117</v>
+        <v>-0.3696897731574249</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1227178960917847</v>
+        <v>0.123159604409833</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.02477195332898278</v>
+        <v>0.02626565276830485</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3335117485773345</v>
+        <v>-0.3341702110117284</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2779786496969142</v>
+        <v>0.2789729524914408</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1809794788977873</v>
+        <v>0.1818513113306778</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.2183479896349713</v>
+        <v>-0.2159258255979596</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.15974112452443</v>
+        <v>0.1615737010242002</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.05390384019215971</v>
+        <v>0.05356415826771743</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.311682857019782</v>
+        <v>-0.3096559721543962</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1954160025206778</v>
+        <v>0.1931458440368452</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.09323914848874519</v>
+        <v>0.09477230013026169</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.2793565264327628</v>
+        <v>-0.2809562729547123</v>
       </c>
     </row>
     <row r="46">
